--- a/Document/阵营战统计（测试版）.xlsx
+++ b/Document/阵营战统计（测试版）.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>自然恢复</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -147,6 +147,28 @@
   </si>
   <si>
     <t>活动天数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紬</t>
+  </si>
+  <si>
+    <t>YUI</t>
+  </si>
+  <si>
+    <t>幻梦境</t>
+  </si>
+  <si>
+    <t>神奈</t>
+  </si>
+  <si>
+    <t>巴罗尔</t>
+  </si>
+  <si>
+    <t>海拉</t>
+  </si>
+  <si>
+    <t>阵营2020年2月4日19:00:14</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -173,7 +195,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -201,6 +223,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -232,7 +260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -264,17 +292,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -619,10 +648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M39"/>
+  <dimension ref="B2:P41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:J3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -635,32 +664,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
@@ -858,20 +887,20 @@
       <c r="F20" s="12"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
@@ -970,12 +999,12 @@
       </c>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
-      <c r="H31" s="17">
+      <c r="H31" s="15">
         <f>D31</f>
         <v>690</v>
       </c>
     </row>
-    <row r="33" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G33" s="1" t="s">
         <v>27</v>
       </c>
@@ -1003,8 +1032,11 @@
         <f>H33</f>
         <v>17490</v>
       </c>
-    </row>
-    <row r="34" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="O33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G34" s="13" t="s">
         <v>29</v>
       </c>
@@ -1027,7 +1059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G35" s="1" t="s">
         <v>28</v>
       </c>
@@ -1038,36 +1070,42 @@
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
     </row>
-    <row r="36" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G36" s="1" t="s">
+    <row r="36" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G36" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="H36" s="1">
-        <v>60000</v>
-      </c>
-      <c r="I36" s="1">
+      <c r="H36" s="20">
+        <v>50000</v>
+      </c>
+      <c r="I36" s="20">
         <v>64000</v>
       </c>
-      <c r="J36" s="1">
+      <c r="J36" s="20">
         <v>68000</v>
       </c>
-      <c r="K36" s="1">
+      <c r="K36" s="20">
         <v>73000</v>
       </c>
-      <c r="L36" s="1">
+      <c r="L36" s="20">
         <v>75000</v>
       </c>
-      <c r="M36" s="1">
+      <c r="M36" s="20">
         <v>80000</v>
       </c>
-    </row>
-    <row r="37" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="O36" t="s">
+        <v>33</v>
+      </c>
+      <c r="P36">
+        <v>49455</v>
+      </c>
+    </row>
+    <row r="37" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G37" s="1" t="s">
         <v>26</v>
       </c>
       <c r="H37" s="1">
         <f>H36-H33</f>
-        <v>42510</v>
+        <v>32510</v>
       </c>
       <c r="I37" s="1">
         <f>I36-I33</f>
@@ -1089,8 +1127,14 @@
         <f t="shared" si="0"/>
         <v>62510</v>
       </c>
-    </row>
-    <row r="38" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="O37" t="s">
+        <v>34</v>
+      </c>
+      <c r="P37">
+        <v>46605</v>
+      </c>
+    </row>
+    <row r="38" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G38" s="2" t="s">
         <v>30</v>
       </c>
@@ -1117,14 +1161,20 @@
         <f>H38</f>
         <v>180</v>
       </c>
-    </row>
-    <row r="39" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="O38" t="s">
+        <v>35</v>
+      </c>
+      <c r="P38">
+        <v>36023</v>
+      </c>
+    </row>
+    <row r="39" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G39" s="2" t="s">
         <v>31</v>
       </c>
       <c r="H39" s="1">
         <f t="shared" ref="H39:M39" si="1">H37/H38*60</f>
-        <v>14170</v>
+        <v>10836.666666666666</v>
       </c>
       <c r="I39" s="1">
         <f t="shared" si="1"/>
@@ -1145,6 +1195,28 @@
       <c r="M39" s="1">
         <f t="shared" si="1"/>
         <v>20836.666666666668</v>
+      </c>
+      <c r="O39" t="s">
+        <v>36</v>
+      </c>
+      <c r="P39">
+        <v>35002</v>
+      </c>
+    </row>
+    <row r="40" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="O40" t="s">
+        <v>37</v>
+      </c>
+      <c r="P40">
+        <v>30768</v>
+      </c>
+    </row>
+    <row r="41" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="O41" t="s">
+        <v>38</v>
+      </c>
+      <c r="P41">
+        <v>28830</v>
       </c>
     </row>
   </sheetData>
